--- a/12/2/Tasa de Política Monetaria 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasa de Política Monetaria 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>Serie</t>
   </si>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S380"/>
+  <dimension ref="A1:S381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16391,15 +16394,27 @@
       <c r="A380" t="s">
         <v>397</v>
       </c>
+      <c r="B380">
+        <v>0.25</v>
+      </c>
       <c r="C380">
         <v>0.1</v>
       </c>
+      <c r="D380">
+        <v>-0.1</v>
+      </c>
+      <c r="E380">
+        <v>-0.5</v>
+      </c>
       <c r="F380">
         <v>0.5</v>
       </c>
       <c r="G380">
         <v>4.35</v>
       </c>
+      <c r="H380">
+        <v>1.75</v>
+      </c>
       <c r="I380">
         <v>0.1</v>
       </c>
@@ -16412,8 +16427,85 @@
       <c r="L380">
         <v>0.5</v>
       </c>
+      <c r="M380">
+        <v>1.13</v>
+      </c>
       <c r="N380">
         <v>19</v>
+      </c>
+      <c r="O380">
+        <v>38</v>
+      </c>
+      <c r="P380">
+        <v>4.25</v>
+      </c>
+      <c r="Q380">
+        <v>1.75</v>
+      </c>
+      <c r="R380">
+        <v>4.25</v>
+      </c>
+      <c r="S380">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19">
+      <c r="A381" t="s">
+        <v>398</v>
+      </c>
+      <c r="B381">
+        <v>0.25</v>
+      </c>
+      <c r="C381">
+        <v>0.1</v>
+      </c>
+      <c r="D381">
+        <v>-0.1</v>
+      </c>
+      <c r="E381">
+        <v>-0.5</v>
+      </c>
+      <c r="F381">
+        <v>0.55</v>
+      </c>
+      <c r="G381">
+        <v>4.35</v>
+      </c>
+      <c r="H381">
+        <v>1.75</v>
+      </c>
+      <c r="I381">
+        <v>0.1</v>
+      </c>
+      <c r="J381">
+        <v>0.7</v>
+      </c>
+      <c r="K381">
+        <v>6.5</v>
+      </c>
+      <c r="L381">
+        <v>0.5</v>
+      </c>
+      <c r="M381">
+        <v>1.13</v>
+      </c>
+      <c r="N381">
+        <v>19</v>
+      </c>
+      <c r="O381">
+        <v>38</v>
+      </c>
+      <c r="P381">
+        <v>5.16</v>
+      </c>
+      <c r="Q381">
+        <v>1.75</v>
+      </c>
+      <c r="R381">
+        <v>4.41</v>
+      </c>
+      <c r="S381">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/12/2/Tasa de Política Monetaria 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasa de Política Monetaria 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t>Serie</t>
   </si>
@@ -1211,6 +1211,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S381"/>
+  <dimension ref="A1:S382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16508,6 +16511,65 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="382" spans="1:19">
+      <c r="A382" t="s">
+        <v>399</v>
+      </c>
+      <c r="B382">
+        <v>0.25</v>
+      </c>
+      <c r="C382">
+        <v>0.1</v>
+      </c>
+      <c r="D382">
+        <v>-0.1</v>
+      </c>
+      <c r="E382">
+        <v>-0.5</v>
+      </c>
+      <c r="F382">
+        <v>0.75</v>
+      </c>
+      <c r="G382">
+        <v>4.35</v>
+      </c>
+      <c r="H382">
+        <v>1.75</v>
+      </c>
+      <c r="I382">
+        <v>0.1</v>
+      </c>
+      <c r="J382">
+        <v>0.75</v>
+      </c>
+      <c r="K382">
+        <v>6.66</v>
+      </c>
+      <c r="L382">
+        <v>0.5</v>
+      </c>
+      <c r="M382">
+        <v>1.13</v>
+      </c>
+      <c r="N382">
+        <v>18.73</v>
+      </c>
+      <c r="O382">
+        <v>38</v>
+      </c>
+      <c r="P382">
+        <v>5.57</v>
+      </c>
+      <c r="Q382">
+        <v>1.75</v>
+      </c>
+      <c r="R382">
+        <v>4.51</v>
+      </c>
+      <c r="S382">
+        <v>0.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasa de Política Monetaria 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasa de Política Monetaria 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t>Serie</t>
   </si>
@@ -1214,6 +1214,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S382"/>
+  <dimension ref="A1:S383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16570,6 +16573,65 @@
         <v>0.86</v>
       </c>
     </row>
+    <row r="383" spans="1:19">
+      <c r="A383" t="s">
+        <v>400</v>
+      </c>
+      <c r="B383">
+        <v>0.25</v>
+      </c>
+      <c r="C383">
+        <v>0.1</v>
+      </c>
+      <c r="D383">
+        <v>-0.1</v>
+      </c>
+      <c r="E383">
+        <v>-0.5</v>
+      </c>
+      <c r="F383">
+        <v>0.75</v>
+      </c>
+      <c r="G383">
+        <v>4.35</v>
+      </c>
+      <c r="H383">
+        <v>1.75</v>
+      </c>
+      <c r="I383">
+        <v>0.44</v>
+      </c>
+      <c r="J383">
+        <v>1.5</v>
+      </c>
+      <c r="K383">
+        <v>6.93</v>
+      </c>
+      <c r="L383">
+        <v>0.5</v>
+      </c>
+      <c r="M383">
+        <v>1.13</v>
+      </c>
+      <c r="N383">
+        <v>17.33</v>
+      </c>
+      <c r="O383">
+        <v>38</v>
+      </c>
+      <c r="P383">
+        <v>6.46</v>
+      </c>
+      <c r="Q383">
+        <v>2.02</v>
+      </c>
+      <c r="R383">
+        <v>4.75</v>
+      </c>
+      <c r="S383">
+        <v>1.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
